--- a/photoapp/src/main/design/photoapp-api-list.xlsx
+++ b/photoapp/src/main/design/photoapp-api-list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAXRUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SD\GIT-REPO\photoapp\src\main\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B06ABB-26EA-4526-8C2E-438526565FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19644" windowHeight="6432"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhotoApp API List" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,11 +270,15 @@
     <t>ssh 계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/repairshop/carcare/department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,11 +361,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -397,7 +402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -440,7 +451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -483,7 +500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -526,7 +549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -569,7 +598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -612,7 +647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -655,7 +696,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -698,7 +745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -741,7 +794,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -784,7 +843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1072,25 +1137,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="8" width="36.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1116,11 +1181,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1142,9 +1207,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,11 +1229,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1190,9 +1255,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1212,9 +1277,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,9 +1299,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1258,9 +1323,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1280,9 +1345,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1302,9 +1367,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1326,9 +1391,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1348,14 +1413,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1374,15 +1439,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1390,10 +1455,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1410,10 +1475,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>53</v>
       </c>
@@ -1438,15 +1503,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>58</v>
       </c>
@@ -1468,7 +1533,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
@@ -1476,19 +1541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1501,16 +1566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1523,14 +1588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,16 +1604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1561,16 +1626,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1583,16 +1648,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1605,16 +1670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1627,16 +1692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1649,16 +1714,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1671,16 +1736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A11"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
